--- a/1_ore_dispensing/data/配方衔接_中文.xlsx
+++ b/1_ore_dispensing/data/配方衔接_中文.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="8370" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="17910" windowHeight="8370" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配方1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>衔接</t>
+  </si>
+  <si>
+    <t>固定</t>
+  </si>
+  <si>
+    <t>批次号</t>
+  </si>
+  <si>
+    <t>排除</t>
+  </si>
+  <si>
     <t>Ag(t/g)</t>
   </si>
   <si>
@@ -71,39 +83,39 @@
     <t>Zn</t>
   </si>
   <si>
-    <t>排除</t>
-  </si>
-  <si>
     <t>希望继续消耗的库存</t>
   </si>
   <si>
-    <t>批次号</t>
+    <t>生产时间</t>
   </si>
   <si>
     <t>演算比例</t>
   </si>
   <si>
-    <t>衔接</t>
-  </si>
-  <si>
-    <t>生产时间</t>
-  </si>
-  <si>
-    <t>固定</t>
-  </si>
-  <si>
     <t>苏茶布</t>
   </si>
   <si>
+    <t>CU10086</t>
+  </si>
+  <si>
     <t>渣精矿烟灰</t>
   </si>
   <si>
+    <t>CU10005</t>
+  </si>
+  <si>
     <t>scb</t>
   </si>
   <si>
+    <t>CU666</t>
+  </si>
+  <si>
     <t>慧金桥</t>
   </si>
   <si>
+    <t>WTT334</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -164,16 +176,31 @@
     <t>慧金桥292柜hjq</t>
   </si>
   <si>
+    <t>FF10009</t>
+  </si>
+  <si>
     <t>江门商人</t>
   </si>
   <si>
+    <t>FF10005</t>
+  </si>
+  <si>
     <t>慧金桥87柜</t>
   </si>
   <si>
+    <t>FS10010</t>
+  </si>
+  <si>
     <t>马尼拉精神37柜</t>
   </si>
   <si>
+    <t>AG10008</t>
+  </si>
+  <si>
     <t>苏察布73柜</t>
+  </si>
+  <si>
+    <t>BB10012</t>
   </si>
 </sst>
 </file>
@@ -181,9 +208,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -200,55 +227,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -256,32 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +251,110 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,46 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,54 +398,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,120 +573,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,21 +583,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,41 +599,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -656,146 +633,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,41 +1155,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMI5"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="18" width="8.72727272727273"/>
-    <col min="19" max="19" width="24.5545454545455"/>
-    <col min="20" max="20" width="21.2818181818182"/>
-    <col min="21" max="21" width="25.2363636363636"/>
-    <col min="22" max="22" width="18.5454545454545"/>
+    <col min="1" max="1" width="8.72727272727273"/>
+    <col min="2" max="5" width="7.72727272727273" customWidth="1"/>
+    <col min="6" max="21" width="8.72727272727273"/>
+    <col min="22" max="22" width="24.5545454545455"/>
     <col min="23" max="23" width="23.8636363636364"/>
-    <col min="24" max="24" width="16.9090909090909"/>
-    <col min="25" max="1025" width="8.72727272727273"/>
+    <col min="24" max="24" width="25.2363636363636"/>
+    <col min="27" max="1024" width="8.72727272727273"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" spans="1:1023">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1171,7 +1197,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1201,16 +1227,16 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -1219,9 +1245,9 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="AMG1"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
-      <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
@@ -1231,287 +1257,287 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>1.87</v>
       </c>
-      <c r="D2" s="1">
+      <c r="H2" s="1">
         <v>0.0033</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.22</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L2" s="1">
         <v>19.92</v>
       </c>
-      <c r="I2" s="1">
+      <c r="M2" s="1">
         <v>25.89</v>
       </c>
-      <c r="J2" s="1">
+      <c r="N2" s="1">
         <v>4.35</v>
       </c>
-      <c r="K2" s="1">
+      <c r="O2" s="1">
         <v>0.18</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0.08</v>
       </c>
-      <c r="N2" s="1">
+      <c r="R2" s="1">
         <v>33.46</v>
       </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>4.47</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="U2" s="1">
         <v>0.063</v>
       </c>
-      <c r="R2" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>209</v>
-      </c>
-      <c r="T2" s="1">
-        <v>10009</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>36.11</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>2.07</v>
       </c>
-      <c r="D3" s="1">
+      <c r="H3" s="1">
         <v>1.92</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1.1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>21.68</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>30.19</v>
       </c>
-      <c r="J3" s="1">
+      <c r="N3" s="1">
         <v>8.4</v>
       </c>
-      <c r="K3" s="1">
+      <c r="O3" s="1">
         <v>0.83</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>1.56</v>
       </c>
-      <c r="N3" s="1">
+      <c r="R3" s="1">
         <v>10.07</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>9.09</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="U3" s="1">
         <v>1.11</v>
       </c>
-      <c r="R3" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="V3" s="1">
         <v>1682</v>
-      </c>
-      <c r="T3" s="1">
-        <v>10005</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
       </c>
       <c r="W3" s="1">
         <v>190.48</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>1.79</v>
       </c>
-      <c r="D4" s="1">
+      <c r="H4" s="1">
         <v>0.16</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.84</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>19.59</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>27.51</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="1">
         <v>6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="O4" s="1">
         <v>0.53</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>0.42</v>
       </c>
-      <c r="N4" s="1">
+      <c r="R4" s="1">
         <v>30.46</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
         <v>6.34</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="U4" s="1">
         <v>0.28</v>
       </c>
-      <c r="R4" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="V4" s="1">
         <v>773</v>
-      </c>
-      <c r="T4" s="1">
-        <v>10010</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>62.5</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>1.54</v>
       </c>
-      <c r="D5" s="1">
+      <c r="H5" s="1">
         <v>0.25</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0.29</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L5" s="1">
         <v>19.71</v>
       </c>
-      <c r="I5" s="1">
+      <c r="M5" s="1">
         <v>26.64</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="1">
         <v>6.94</v>
       </c>
-      <c r="K5" s="1">
+      <c r="O5" s="1">
         <v>0.91</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>1.43</v>
       </c>
-      <c r="N5" s="1">
+      <c r="R5" s="1">
         <v>32.12</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <v>3.3</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="U5" s="1">
         <v>4.46</v>
-      </c>
-      <c r="R5" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>10012</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.33</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1520,11 +1546,11 @@
         <v>30.3</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1548,15 +1574,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>74</v>
@@ -1564,7 +1590,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>3.5</v>
@@ -1572,7 +1598,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>20.84</v>
@@ -1580,7 +1606,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>1.99</v>
@@ -1588,7 +1614,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>0.45</v>
@@ -1596,7 +1622,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>48</v>
@@ -1604,7 +1630,7 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>24</v>
@@ -1612,7 +1638,7 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1">
         <v>1100</v>
@@ -1620,7 +1646,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>1.5</v>
@@ -1628,7 +1654,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -1636,7 +1662,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>0.666667</v>
@@ -1644,7 +1670,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>160</v>
@@ -1652,7 +1678,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -1660,7 +1686,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1">
         <v>85</v>
@@ -1668,7 +1694,7 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>230</v>
@@ -1676,14 +1702,14 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1694,21 +1720,19 @@
   <sheetPr/>
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="18.4090909090909"/>
-    <col min="2" max="18" width="8.72727272727273"/>
-    <col min="19" max="19" width="15.8181818181818"/>
-    <col min="20" max="20" width="8.72727272727273"/>
-    <col min="21" max="21" width="28.6363636363636"/>
-    <col min="22" max="22" width="20.0454545454545"/>
+    <col min="2" max="5" width="9.72727272727273" customWidth="1"/>
+    <col min="6" max="21" width="8.72727272727273"/>
+    <col min="22" max="22" width="15.8181818181818"/>
     <col min="23" max="23" width="22.9090909090909"/>
-    <col min="24" max="24" width="18.9545454545455"/>
-    <col min="25" max="1025" width="8.72727272727273"/>
+    <col min="24" max="24" width="28.6363636363636"/>
+    <col min="29" max="1025" width="8.72727272727273"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="25" spans="1:1024">
@@ -1718,16 +1742,16 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1736,7 +1760,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1763,20 +1787,20 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>22</v>
@@ -1790,293 +1814,293 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <f t="shared" ref="E2:E6" si="0">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>1.54</v>
       </c>
-      <c r="D2" s="1">
+      <c r="H2" s="1">
         <v>0.25</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.29</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L2" s="1">
         <v>19.71</v>
       </c>
-      <c r="I2" s="1">
+      <c r="M2" s="1">
         <v>26.64</v>
       </c>
-      <c r="J2" s="1">
+      <c r="N2" s="1">
         <v>6.94</v>
       </c>
-      <c r="K2" s="1">
+      <c r="O2" s="1">
         <v>0.91</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>1.43</v>
       </c>
-      <c r="N2" s="1">
+      <c r="R2" s="1">
         <v>32.12</v>
       </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>3.3</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="U2" s="1">
         <v>4.46</v>
       </c>
-      <c r="R2" s="1" t="b">
-        <f t="shared" ref="R2:R6" si="0">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>1100</v>
-      </c>
-      <c r="T2" s="1">
-        <v>10009</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>83.33</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>2.07</v>
       </c>
-      <c r="D3" s="1">
+      <c r="H3" s="1">
         <v>1.92</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1.1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>21.08</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>30.19</v>
       </c>
-      <c r="J3" s="1">
+      <c r="N3" s="1">
         <v>8.4</v>
       </c>
-      <c r="K3" s="1">
+      <c r="O3" s="1">
         <v>0.83</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>1.56</v>
       </c>
-      <c r="N3" s="1">
+      <c r="R3" s="1">
         <v>10.07</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>9.09</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="U3" s="1">
         <v>1.11</v>
       </c>
-      <c r="R3" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="V3" s="1">
         <v>67</v>
-      </c>
-      <c r="T3" s="1">
-        <v>10005</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
       </c>
       <c r="W3" s="1">
         <v>28.57</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>1.65</v>
       </c>
-      <c r="D4" s="1">
+      <c r="H4" s="1">
         <v>0.0001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.18</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>20.79</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>26.19</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="1">
         <v>4.3</v>
       </c>
-      <c r="K4" s="1">
+      <c r="O4" s="1">
         <v>0.19</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>0.082</v>
       </c>
-      <c r="N4" s="1">
+      <c r="R4" s="1">
         <v>33.98</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
         <v>2.76</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="U4" s="1">
         <v>0.11</v>
       </c>
-      <c r="R4" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="V4" s="1">
         <v>1233</v>
-      </c>
-      <c r="T4" s="1">
-        <v>10010</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>125</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>1.64</v>
       </c>
-      <c r="D5" s="1">
+      <c r="H5" s="1">
         <v>0.29</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0.67</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L5" s="1">
         <v>21.99</v>
       </c>
-      <c r="I5" s="1">
+      <c r="M5" s="1">
         <v>27.35</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="1">
         <v>7.3</v>
       </c>
-      <c r="K5" s="1">
+      <c r="O5" s="1">
         <v>0.44</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>0.25</v>
       </c>
-      <c r="N5" s="1">
+      <c r="R5" s="1">
         <v>31.24</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <v>5.72</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="U5" s="1">
         <v>0.24</v>
-      </c>
-      <c r="R5" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>10008</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.3</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -2085,86 +2109,86 @@
         <v>22.22</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>1.79</v>
       </c>
-      <c r="D6" s="1">
+      <c r="H6" s="1">
         <v>0.16</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>0.84</v>
       </c>
-      <c r="H6" s="1">
+      <c r="L6" s="1">
         <v>19.59</v>
       </c>
-      <c r="I6" s="1">
+      <c r="M6" s="1">
         <v>27.51</v>
       </c>
-      <c r="J6" s="1">
+      <c r="N6" s="1">
         <v>6</v>
       </c>
-      <c r="K6" s="1">
+      <c r="O6" s="1">
         <v>0.53</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>0.42</v>
       </c>
-      <c r="N6" s="1">
+      <c r="R6" s="1">
         <v>30.46</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>6.34</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="U6" s="1">
         <v>0.28</v>
       </c>
-      <c r="R6" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="V6" s="1">
         <v>67</v>
-      </c>
-      <c r="T6" s="1">
-        <v>10012</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>23.26</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2175,7 +2199,7 @@
   <sheetPr/>
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2187,15 +2211,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1024">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2204,7 +2228,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1024">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2213,7 +2237,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1024">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2222,7 +2246,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1024">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2231,7 +2255,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1024">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2240,7 +2264,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1024">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2249,7 +2273,7 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1024">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -2258,7 +2282,7 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1024">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -2267,7 +2291,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:1024">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -2276,7 +2300,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1024">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -2285,7 +2309,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:1024">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -2294,7 +2318,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:1024">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -2303,7 +2327,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:1024">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -2312,7 +2336,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:1024">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -2321,7 +2345,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>200</v>
@@ -2329,14 +2353,14 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>0.96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/1_ore_dispensing/data/配方衔接_中文.xlsx
+++ b/1_ore_dispensing/data/配方衔接_中文.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="8370" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="13365" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="配方1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>名称</t>
   </si>
@@ -35,7 +35,7 @@
     <t>排除</t>
   </si>
   <si>
-    <t>Ag(t/g)</t>
+    <t>Ag(g/t)</t>
   </si>
   <si>
     <t>Al2O3</t>
@@ -44,7 +44,7 @@
     <t>As</t>
   </si>
   <si>
-    <t>Au(t/g)</t>
+    <t>Au(g/t)</t>
   </si>
   <si>
     <t>Bi</t>
@@ -104,13 +104,10 @@
     <t>CU10005</t>
   </si>
   <si>
+    <t>CU666</t>
+  </si>
+  <si>
     <t>scb</t>
-  </si>
-  <si>
-    <t>CU666</t>
-  </si>
-  <si>
-    <t>慧金桥</t>
   </si>
   <si>
     <t>WTT334</t>
@@ -208,8 +205,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -235,38 +232,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,16 +296,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -308,31 +312,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,15 +342,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,16 +359,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,25 +389,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,157 +557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,26 +592,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,15 +633,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -655,16 +643,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +671,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,135 +688,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1157,19 +1154,19 @@
   <sheetPr/>
   <dimension ref="A1:AMI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V$1:V$1048576"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273"/>
-    <col min="2" max="5" width="7.72727272727273" customWidth="1"/>
-    <col min="6" max="21" width="8.72727272727273"/>
-    <col min="22" max="22" width="24.5545454545455"/>
-    <col min="23" max="23" width="23.8636363636364"/>
-    <col min="24" max="24" width="25.2363636363636"/>
-    <col min="27" max="1024" width="8.72727272727273"/>
+    <col min="1" max="1" width="8.725"/>
+    <col min="2" max="5" width="7.725" customWidth="1"/>
+    <col min="6" max="21" width="8.725"/>
+    <col min="22" max="22" width="24.5583333333333"/>
+    <col min="23" max="23" width="23.8666666666667"/>
+    <col min="24" max="24" width="25.2333333333333"/>
+    <col min="27" max="1024" width="8.725"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1023">
@@ -1401,16 +1398,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="1" t="b">
         <f>FALSE()</f>
@@ -1476,16 +1473,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="1" t="b">
         <f>FALSE()</f>
@@ -1565,24 +1562,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.8272727272727"/>
-    <col min="2" max="2" width="9.40909090909091"/>
-    <col min="3" max="1025" width="8.72727272727273"/>
+    <col min="1" max="1" width="27.825"/>
+    <col min="2" max="2" width="9.40833333333333"/>
+    <col min="3" max="1025" width="8.725"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>74</v>
@@ -1590,7 +1587,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>3.5</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>20.84</v>
@@ -1606,7 +1603,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>1.99</v>
@@ -1614,7 +1611,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>0.45</v>
@@ -1622,7 +1619,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>48</v>
@@ -1630,7 +1627,7 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>24</v>
@@ -1638,7 +1635,7 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>1100</v>
@@ -1646,7 +1643,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>1.5</v>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -1662,7 +1659,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>0.666667</v>
@@ -1670,7 +1667,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>160</v>
@@ -1678,7 +1675,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -1686,7 +1683,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1">
         <v>85</v>
@@ -1694,7 +1691,7 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>230</v>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>0.98</v>
@@ -1720,22 +1717,22 @@
   <sheetPr/>
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="18.4090909090909"/>
-    <col min="2" max="5" width="9.72727272727273" customWidth="1"/>
-    <col min="6" max="21" width="8.72727272727273"/>
-    <col min="22" max="22" width="15.8181818181818"/>
-    <col min="23" max="23" width="22.9090909090909"/>
-    <col min="24" max="24" width="28.6363636363636"/>
-    <col min="29" max="1025" width="8.72727272727273"/>
+    <col min="1" max="1" width="18.4083333333333"/>
+    <col min="2" max="5" width="9.725" customWidth="1"/>
+    <col min="6" max="21" width="8.725"/>
+    <col min="22" max="22" width="15.8166666666667"/>
+    <col min="23" max="23" width="22.9083333333333"/>
+    <col min="24" max="24" width="28.6333333333333"/>
+    <col min="29" max="1025" width="8.725"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" spans="1:1024">
+    <row r="1" s="1" customFormat="1" ht="25.5" spans="1:1024">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>22</v>
@@ -1814,16 +1811,16 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="1" t="b">
         <f t="shared" ref="E2:E6" si="0">FALSE()</f>
@@ -1889,16 +1886,16 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E3" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1964,16 +1961,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E4" s="1" t="b">
         <f t="shared" si="0"/>
@@ -2039,16 +2036,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E5" s="1" t="b">
         <f t="shared" si="0"/>
@@ -2114,16 +2111,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E6" s="1" t="b">
         <f t="shared" si="0"/>
@@ -2203,23 +2200,23 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.8272727272727"/>
-    <col min="2" max="1025" width="8.72727272727273"/>
+    <col min="1" max="1" width="27.825"/>
+    <col min="2" max="1025" width="8.725"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1024">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1024">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2237,7 +2234,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1024">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1024">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1024">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2264,7 +2261,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1024">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2273,7 +2270,7 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1024">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -2282,7 +2279,7 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1024">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -2291,7 +2288,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:1024">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -2300,7 +2297,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1024">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:1024">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -2318,7 +2315,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:1024">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -2327,7 +2324,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:1024">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -2336,7 +2333,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:1024">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -2345,7 +2342,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>200</v>
@@ -2353,7 +2350,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>0.96</v>
